--- a/biology/Médecine/Georges_Képénékian/Georges_Képénékian.xlsx
+++ b/biology/Médecine/Georges_Képénékian/Georges_Képénékian.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Georges_K%C3%A9p%C3%A9n%C3%A9kian</t>
+          <t>Georges_Képénékian</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Georges Képénékian, né le 9 août 1949 à Lyon, est un homme politique français.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Georges_K%C3%A9p%C3%A9n%C3%A9kian</t>
+          <t>Georges_Képénékian</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,15 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Situation personnelle
-Georges Képénékian naît le 9 août 1949 dans le 2e arrondissement de Lyon[1],[2]. D'origine arménienne, Georges Képénékian est fortement engagé dans la reconnaissance du génocide arménien[3] et ancien membre du conseil de la fondation Léa et Napoléon Bullukian de Lyon. Il est marié et père de trois enfants[4].
-Carrière professionnelle
-Il est chirurgien urologue de profession et directeur de stratégie au centre hospitalier Saint-Joseph Saint-Luc de Lyon depuis 2005[3],[5].
-Parcours politique
-Adjoint au maire de Lyon à partir de 2008, alors chargé de la culture, des grands événements et des droits des citoyens à partir de 2008, il devient premier adjoint en avril 2014[3]. Il est également conseiller du 3e arrondissement de Lyon et membre permanent au conseil de la métropole de Lyon[6]. Comme le maire de Lyon, Gérard Collomb, il quitte le PS pour La République en marche[7].
-Après la nomination de Gérard Collomb au ministère de l'Intérieur en mai 2017 et l'élection de David Kimelfeld à la tête de la métropole le 10 juillet 2017[8], il est fortement pressenti pour succéder à Gérard Collomb comme maire de Lyon[8],[9],[10],[11],[12]. Le 17 juillet, il est élu maire par le conseil municipal, avec 49 voix, soit 13 de plus que la majorité absolue[13],[14].
-Georges Képénékian annonce sa démission de la mairie de Lyon le 2 octobre 2018 pour permettre à Gérard Collomb, démissionnaire du gouvernement, de récupérer le fauteuil de maire[15],[16]. Il demeure en fonction jusqu'à l'élection de son successeur, le 5 novembre 2018[17], puis redevient premier adjoint.
-Il est candidat à la mairie de Lyon pour les élections municipales de 2020, à la tête d'une liste qu’il présente comme indépendante, face notamment à celle conduite par Yann Cucherat et soutenue par Gérard Collomb et LREM[18].
+          <t>Situation personnelle</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges Képénékian naît le 9 août 1949 dans le 2e arrondissement de Lyon,. D'origine arménienne, Georges Képénékian est fortement engagé dans la reconnaissance du génocide arménien et ancien membre du conseil de la fondation Léa et Napoléon Bullukian de Lyon. Il est marié et père de trois enfants.
 </t>
         </is>
       </c>
@@ -534,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Georges_K%C3%A9p%C3%A9n%C3%A9kian</t>
+          <t>Georges_Képénékian</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,10 +559,89 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière professionnelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est chirurgien urologue de profession et directeur de stratégie au centre hospitalier Saint-Joseph Saint-Luc de Lyon depuis 2005,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Georges_Képénékian</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_K%C3%A9p%C3%A9n%C3%A9kian</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Parcours politique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adjoint au maire de Lyon à partir de 2008, alors chargé de la culture, des grands événements et des droits des citoyens à partir de 2008, il devient premier adjoint en avril 2014. Il est également conseiller du 3e arrondissement de Lyon et membre permanent au conseil de la métropole de Lyon. Comme le maire de Lyon, Gérard Collomb, il quitte le PS pour La République en marche.
+Après la nomination de Gérard Collomb au ministère de l'Intérieur en mai 2017 et l'élection de David Kimelfeld à la tête de la métropole le 10 juillet 2017, il est fortement pressenti pour succéder à Gérard Collomb comme maire de Lyon. Le 17 juillet, il est élu maire par le conseil municipal, avec 49 voix, soit 13 de plus que la majorité absolue,.
+Georges Képénékian annonce sa démission de la mairie de Lyon le 2 octobre 2018 pour permettre à Gérard Collomb, démissionnaire du gouvernement, de récupérer le fauteuil de maire,. Il demeure en fonction jusqu'à l'élection de son successeur, le 5 novembre 2018, puis redevient premier adjoint.
+Il est candidat à la mairie de Lyon pour les élections municipales de 2020, à la tête d'une liste qu’il présente comme indépendante, face notamment à celle conduite par Yann Cucherat et soutenue par Gérard Collomb et LREM.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Georges_Képénékian</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_K%C3%A9p%C3%A9n%C3%A9kian</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Détail des mandats et fonctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Depuis le 21 mars 2008 : conseiller municipal de Lyon
 21 mars 2008 - 11 juillet 2017 : adjoint au maire de Lyon, chargé de la culture, des grands événements et des droits des citoyens
@@ -564,34 +653,36 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Georges_K%C3%A9p%C3%A9n%C3%A9kian</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Georges_Képénékian</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Georges_K%C3%A9p%C3%A9n%C3%A9kian</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur Il est fait chevalier le 30 décembre 2017[19],[20].
- Officier de l'ordre des Arts et des Lettres Il est promu au grade d’officier par l’arrêté du 13 février 2015[21].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur Il est fait chevalier le 30 décembre 2017,.
+ Officier de l'ordre des Arts et des Lettres Il est promu au grade d’officier par l’arrêté du 13 février 2015.</t>
         </is>
       </c>
     </row>
